--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2500108.815284226</v>
+        <v>2495856.3356576</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9366820.088151915</v>
+        <v>9366820.088151913</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>136.0703867839426</v>
       </c>
       <c r="G2" t="n">
         <v>413.9075077423441</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548845</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607297</v>
+        <v>62.22601572607259</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>140.8066609114005</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046872</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031469</v>
+        <v>63.69429571031458</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870443</v>
       </c>
       <c r="S3" t="n">
-        <v>64.743577905199</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8922693348453</v>
+        <v>79.01034292140196</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.55319236861764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>78.0698709330993</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724863</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866937</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>126.3072293856624</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>156.8218878055915</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>29.36682762385458</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>200.7632176007441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>95.97556051608498</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>167.9832108025278</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>256.0414466621158</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1186,10 +1186,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>114.1460214218932</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -1341,22 +1341,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.13708238253239</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>181.7081687952632</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>174.7683347992595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381894</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>112.7606860319981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>13.74238375877687</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>6.434538210426291</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>18.16423677622388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>10.63412424768211</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>126.9420388308266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1038.435031972305</v>
+        <v>1508.947913522988</v>
       </c>
       <c r="C2" t="n">
-        <v>1038.435031972305</v>
+        <v>1508.947913522988</v>
       </c>
       <c r="D2" t="n">
-        <v>1038.435031972305</v>
+        <v>1150.682214916237</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.435031972305</v>
+        <v>764.8939623179929</v>
       </c>
       <c r="F2" t="n">
         <v>627.4491271826973</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237639</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237639</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297142</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="J2" t="n">
-        <v>156.496154571033</v>
+        <v>156.4961545710337</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005</v>
+        <v>435.2148351005014</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311624</v>
+        <v>833.2666318311644</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537222</v>
+        <v>1292.782497537225</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813639</v>
+        <v>1745.101812813644</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132807</v>
+        <v>2127.026478132813</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935761</v>
+        <v>2415.315960935767</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648571</v>
+        <v>2554.587596648578</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309103</v>
+        <v>2491.733035309111</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309103</v>
+        <v>2491.733035309111</v>
       </c>
       <c r="T2" t="n">
-        <v>2349.504084893547</v>
+        <v>2272.553003759879</v>
       </c>
       <c r="U2" t="n">
-        <v>2095.732332847069</v>
+        <v>2272.553003759879</v>
       </c>
       <c r="V2" t="n">
-        <v>1764.669445503499</v>
+        <v>2272.553003759879</v>
       </c>
       <c r="W2" t="n">
-        <v>1411.900790233385</v>
+        <v>2272.553003759879</v>
       </c>
       <c r="X2" t="n">
-        <v>1038.435031972305</v>
+        <v>1899.087245498799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1038.435031972305</v>
+        <v>1508.947913522988</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297142</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687505</v>
+        <v>120.176512368751</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270534</v>
+        <v>364.8742147270544</v>
       </c>
       <c r="L3" t="n">
-        <v>755.304869406673</v>
+        <v>755.3048694066747</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633821</v>
+        <v>1262.898249633824</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631797</v>
+        <v>1642.492908358683</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908669</v>
+        <v>2067.084785635556</v>
       </c>
       <c r="P3" t="n">
-        <v>2547.994353427082</v>
+        <v>2390.854132153969</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648571</v>
+        <v>2554.587596648578</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648571</v>
+        <v>2500.235577922614</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2340.824460973175</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.042816493197</v>
+        <v>2141.677234257395</v>
       </c>
       <c r="U3" t="n">
         <v>2061.86880706406</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.5160079604921</v>
+        <v>424.7532485012541</v>
       </c>
       <c r="C4" t="n">
-        <v>144.5798250325852</v>
+        <v>424.7532485012541</v>
       </c>
       <c r="D4" t="n">
-        <v>144.5798250325852</v>
+        <v>424.7532485012541</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297142</v>
+        <v>276.840154918861</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297142</v>
+        <v>129.9502074209506</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297142</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297142</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297142</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297142</v>
+        <v>51.09175193297155</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771858</v>
+        <v>101.0304570771862</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703263</v>
+        <v>220.4612409703272</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486087</v>
+        <v>356.77338024861</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493186</v>
+        <v>495.2789379493203</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455625</v>
+        <v>607.1949427455645</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071386</v>
+        <v>679.437736707141</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071386</v>
+        <v>679.437736707141</v>
       </c>
       <c r="R4" t="n">
-        <v>528.7783350177585</v>
+        <v>679.437736707141</v>
       </c>
       <c r="S4" t="n">
-        <v>313.5160079604921</v>
+        <v>679.437736707141</v>
       </c>
       <c r="T4" t="n">
-        <v>313.5160079604921</v>
+        <v>679.437736707141</v>
       </c>
       <c r="U4" t="n">
-        <v>313.5160079604921</v>
+        <v>679.437736707141</v>
       </c>
       <c r="V4" t="n">
-        <v>313.5160079604921</v>
+        <v>424.7532485012541</v>
       </c>
       <c r="W4" t="n">
-        <v>313.5160079604921</v>
+        <v>424.7532485012541</v>
       </c>
       <c r="X4" t="n">
-        <v>313.5160079604921</v>
+        <v>424.7532485012541</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.5160079604921</v>
+        <v>424.7532485012541</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2188.873570139075</v>
+        <v>1473.661701757002</v>
       </c>
       <c r="C5" t="n">
-        <v>2061.290510153558</v>
+        <v>1104.699184816591</v>
       </c>
       <c r="D5" t="n">
-        <v>1703.024811546807</v>
+        <v>746.4334862098401</v>
       </c>
       <c r="E5" t="n">
-        <v>1317.236558948563</v>
+        <v>746.4334862098401</v>
       </c>
       <c r="F5" t="n">
-        <v>906.2506541589553</v>
+        <v>588.0275389314648</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430381</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>969.3818672684457</v>
+        <v>1215.460820653039</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>1409.795033545021</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>1956.956238312099</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2386.271284651393</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139075</v>
+        <v>1860.261541821124</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>918.7636139849254</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>744.3105847037984</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647824</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8151058240044</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>636.5640407464026</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>816.0613771010075</v>
+        <v>1159.565353453463</v>
       </c>
       <c r="N6" t="n">
         <v>1358.222095106128</v>
@@ -4664,7 +4664,7 @@
         <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,22 +4676,22 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1991.980214935424</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1756.828106703682</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1502.59074997548</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1294.739249769947</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1086.978951004993</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.0663849496738</v>
+        <v>237.7282193319823</v>
       </c>
       <c r="C7" t="n">
-        <v>69.12137432736571</v>
+        <v>237.7282193319823</v>
       </c>
       <c r="D7" t="n">
-        <v>69.12137432736571</v>
+        <v>237.7282193319823</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>237.7282193319823</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>237.7282193319823</v>
       </c>
       <c r="G7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4752,25 +4752,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>674.0611723681089</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>674.0611723681089</v>
       </c>
       <c r="V7" t="n">
-        <v>796.496979821461</v>
+        <v>419.376684162222</v>
       </c>
       <c r="W7" t="n">
-        <v>796.496979821461</v>
+        <v>419.376684162222</v>
       </c>
       <c r="X7" t="n">
-        <v>568.5074289234436</v>
+        <v>419.376684162222</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.7148497799135</v>
+        <v>419.376684162222</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>387.9125058685489</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>376.2481596332418</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.34110938936</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1991.278222045789</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.509566775675</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.509566775675</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>781.4578466818741</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
         <v>2422.685363568936</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.7836012132566</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>602.8474182853497</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4959,10 +4959,10 @@
         <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4989,25 +4989,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1492.310105122875</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W10" t="n">
-        <v>955.3272060569568</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X10" t="n">
-        <v>771.7836012132566</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y10" t="n">
-        <v>771.7836012132566</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,67 +5175,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.383708318259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.7822433412</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
         <v>1729.097755135313</v>
@@ -5263,43 +5263,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>416.6057892068301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>416.6057892068301</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>249.40968992171</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>107.6978587639081</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6247,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>267.5122958789771</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>100.316196593857</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>320.6148781080811</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.34979150037514</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.7586225842971</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>142.5090138658258</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>95.99119834235051</v>
       </c>
       <c r="N6" t="n">
-        <v>346.9737134873288</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>60.35797727397573</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>6.257951202385129</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>208.7894017452182</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.8601746357976</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>206.7713260796062</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>40.30478226780127</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>897494.5895622376</v>
+        <v>897494.5895622377</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448202</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
@@ -26331,31 +26331,31 @@
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="O2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161949</v>
+        <v>548460.074616197</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299285</v>
+        <v>225009.9816299266</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843796</v>
+        <v>167098.1292843801</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243604746</v>
+        <v>498.7619243600065</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198069</v>
+        <v>247452.3619198063</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26426,13 +26426,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719647</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171961</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26441,7 +26441,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719649</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946016</v>
+        <v>80023.3137194603</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239628.3786106422</v>
+        <v>-239628.3786106442</v>
       </c>
       <c r="C6" t="n">
-        <v>127471.8185756872</v>
+        <v>127471.8185756889</v>
       </c>
       <c r="D6" t="n">
-        <v>118570.7261352045</v>
+        <v>118570.7261352044</v>
       </c>
       <c r="E6" t="n">
-        <v>9423.274849582231</v>
+        <v>9075.895595225036</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197711</v>
       </c>
       <c r="G6" t="n">
-        <v>516908.7164741279</v>
+        <v>516561.3372197711</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197711</v>
       </c>
       <c r="I6" t="n">
-        <v>516908.7164741278</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="J6" t="n">
-        <v>349810.5871897488</v>
+        <v>349463.2079353911</v>
       </c>
       <c r="K6" t="n">
-        <v>516409.9545497674</v>
+        <v>516062.575295411</v>
       </c>
       <c r="L6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197712</v>
       </c>
       <c r="M6" t="n">
-        <v>384301.4227452013</v>
+        <v>383954.0434908447</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.7164741281</v>
+        <v>516561.3372197713</v>
       </c>
       <c r="O6" t="n">
-        <v>516908.7164741281</v>
+        <v>516561.3372197712</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.7164741281</v>
+        <v>516561.3372197711</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817377</v>
+        <v>347.0634059817392</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621427</v>
+        <v>638.6468991621445</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817377</v>
+        <v>347.0634059817392</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563274</v>
+        <v>246.4126943563259</v>
       </c>
       <c r="D3" t="n">
         <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621427</v>
+        <v>638.6468991621445</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937895994</v>
+        <v>1.937932937894402</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621425</v>
+        <v>638.6468991621445</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937896221</v>
+        <v>1.937932937894402</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621427</v>
+        <v>638.6468991621445</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895994</v>
+        <v>1.937932937894402</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>270.8056589577689</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387726</v>
+        <v>177.2262711387724</v>
       </c>
       <c r="T2" t="n">
-        <v>76.1815703223387</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870464</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>93.07342787474582</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>146.8819264134434</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>53.88077027795153</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3651273148851</v>
+        <v>89.29525638178585</v>
       </c>
       <c r="H4" t="n">
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077896</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601747</v>
+        <v>49.11144063601728</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.755468948452</v>
+        <v>33.75546894845176</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27596,7 +27596,7 @@
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>238.9656623853451</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>250.0541579361199</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.53999045278886</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>25.09418201320176</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>71.27126058254285</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27824,10 +27824,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>55.38969391823093</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>44.97710590028953</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>136.8992287065688</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>153.5253779792051</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>44.00148659377393</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790904</v>
+        <v>1.39522977279091</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059485</v>
+        <v>14.28889691059491</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552139</v>
+        <v>53.78959581552162</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284121</v>
+        <v>118.4183829284126</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106511</v>
+        <v>177.4784592106519</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697008</v>
+        <v>220.1777223697018</v>
       </c>
       <c r="M2" t="n">
-        <v>244.990139841571</v>
+        <v>244.9901398415721</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335132</v>
+        <v>248.9543364335143</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803236</v>
+        <v>235.0805203803247</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645482</v>
+        <v>200.635785364549</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264738</v>
+        <v>150.6691191264745</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507671</v>
+        <v>87.64310221507709</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747276</v>
+        <v>31.7937984474729</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392186</v>
+        <v>6.107618330392213</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232723</v>
+        <v>0.1116183818232728</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.746513741168266</v>
+        <v>0.7465137411682693</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809306</v>
+        <v>7.209751131809338</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110039</v>
+        <v>25.7023371411005</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502464</v>
+        <v>70.52917762502496</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832985</v>
+        <v>120.545598283299</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426974</v>
+        <v>162.0884331426981</v>
       </c>
       <c r="M3" t="n">
-        <v>189.149556260047</v>
+        <v>189.1495562600478</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821798</v>
+        <v>194.1557821821807</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857672</v>
+        <v>177.614609285768</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323858</v>
+        <v>142.5513827323865</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.2918242235141</v>
+        <v>95.29182422351452</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393849</v>
+        <v>46.3493356139387</v>
       </c>
       <c r="S3" t="n">
-        <v>13.866165323893</v>
+        <v>13.86616532389306</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200159</v>
+        <v>3.008974246200172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0491127461294912</v>
+        <v>0.04911274612949142</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736252</v>
+        <v>0.625852043573628</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772781</v>
+        <v>5.564393623772806</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946866</v>
+        <v>18.82107781946875</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065531</v>
+        <v>44.2477394806555</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519026</v>
+        <v>72.71262833519059</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730062</v>
+        <v>93.04713018730104</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218198</v>
+        <v>98.10515261218242</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886219</v>
+        <v>95.77243135886262</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711572</v>
+        <v>88.46134157711612</v>
       </c>
       <c r="P4" t="n">
-        <v>75.6939598882137</v>
+        <v>75.69395988821404</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324239</v>
+        <v>52.40657430324262</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468318</v>
+        <v>28.1405837046833</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027854</v>
+        <v>10.90689425027859</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269125</v>
+        <v>2.674095095269137</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492506</v>
+        <v>0.0341373841949252</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>469.5567819573404</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>606.5820696732821</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737996</v>
+        <v>106.4690935738001</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368353</v>
+        <v>281.5340207368361</v>
       </c>
       <c r="L2" t="n">
-        <v>402.072521950164</v>
+        <v>402.072521950165</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071308</v>
+        <v>464.1574401071318</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489065</v>
+        <v>456.8881972489075</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213823</v>
+        <v>385.7824902213833</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807613</v>
+        <v>291.2014977807621</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.678419911929</v>
+        <v>140.6784199119297</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876679</v>
+        <v>69.7825862987671</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215181</v>
+        <v>247.1693963215186</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662824</v>
+        <v>394.3743986662831</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880285</v>
+        <v>512.7205860880294</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424</v>
+        <v>383.4289482069286</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180523</v>
+        <v>428.8806841180531</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579928</v>
+        <v>327.0397439579934</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.659841637867724</v>
+        <v>165.3873378733421</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930741</v>
+        <v>50.44313650930773</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476168</v>
+        <v>120.6371554476172</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740226</v>
+        <v>137.689029574023</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380908</v>
+        <v>139.9046037380912</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911554</v>
+        <v>113.0464694911558</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310719</v>
+        <v>72.97251915310753</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>375.0558073236733</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -34956,7 +34956,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>177.846508837134</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>277.3016391045776</v>
       </c>
       <c r="N6" t="n">
-        <v>547.6370888940609</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>484.1293732522353</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35266,7 +35266,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>395.7826592700988</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991805</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164533</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>327.4227480353221</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2495856.3356576</v>
+        <v>2497616.865960387</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9366820.088151913</v>
+        <v>9366820.088151917</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>136.0703867839426</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.9075077423441</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>98.5470396306301</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607259</v>
+        <v>62.22601572607311</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387726</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337392</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031458</v>
+        <v>63.69429571031473</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870443</v>
+        <v>53.80849853870471</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799448</v>
+        <v>10.93507936649223</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
-        <v>79.01034292140196</v>
+        <v>225.8922693348453</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>78.0698709330993</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>31.33425353872352</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>156.8218878055915</v>
+        <v>201.8644630180567</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
@@ -952,10 +952,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385634</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7632176007441</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>167.9832108025278</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>163.6333765063157</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>98.25918840768199</v>
       </c>
       <c r="H8" t="n">
-        <v>256.0414466621158</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110028</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>41.13708238253239</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>16.92025364381894</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>130.732365546955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1508.947913522988</v>
+        <v>1706.936728202038</v>
       </c>
       <c r="C2" t="n">
-        <v>1508.947913522988</v>
+        <v>1337.974211261627</v>
       </c>
       <c r="D2" t="n">
-        <v>1150.682214916237</v>
+        <v>979.7085126548761</v>
       </c>
       <c r="E2" t="n">
-        <v>764.8939623179929</v>
+        <v>979.7085126548761</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826973</v>
+        <v>568.7226078652686</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237638</v>
+        <v>150.6342162063351</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>150.6342162063351</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297155</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710337</v>
+        <v>156.4961545710328</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005014</v>
+        <v>435.2148351004996</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311644</v>
+        <v>833.2666318311619</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537225</v>
+        <v>1292.782497537221</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813644</v>
+        <v>1745.101812813638</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132813</v>
+        <v>2127.026478132806</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935767</v>
+        <v>2415.315960935759</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648578</v>
+        <v>2554.587596648569</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309111</v>
+        <v>2491.733035309101</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309111</v>
+        <v>2312.716599815391</v>
       </c>
       <c r="T2" t="n">
-        <v>2272.553003759879</v>
+        <v>2093.53656826616</v>
       </c>
       <c r="U2" t="n">
-        <v>2272.553003759879</v>
+        <v>2093.53656826616</v>
       </c>
       <c r="V2" t="n">
-        <v>2272.553003759879</v>
+        <v>2093.53656826616</v>
       </c>
       <c r="W2" t="n">
-        <v>2272.553003759879</v>
+        <v>2093.53656826616</v>
       </c>
       <c r="X2" t="n">
-        <v>1899.087245498799</v>
+        <v>2093.53656826616</v>
       </c>
       <c r="Y2" t="n">
-        <v>1508.947913522988</v>
+        <v>2093.53656826616</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297155</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="J3" t="n">
-        <v>120.176512368751</v>
+        <v>120.1765123687504</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270544</v>
+        <v>364.8742147270531</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066747</v>
+        <v>755.3048694066724</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633824</v>
+        <v>1262.89824963382</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358683</v>
+        <v>1642.492908358677</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635556</v>
+        <v>2067.084785635548</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153969</v>
+        <v>2390.854132153961</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648578</v>
+        <v>2554.587596648569</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922614</v>
+        <v>2500.235577922605</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973175</v>
+        <v>2489.190043208976</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257395</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
         <v>2061.86880706406</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.7532485012541</v>
+        <v>199.0048455153645</v>
       </c>
       <c r="C4" t="n">
-        <v>424.7532485012541</v>
+        <v>199.0048455153645</v>
       </c>
       <c r="D4" t="n">
-        <v>424.7532485012541</v>
+        <v>199.0048455153645</v>
       </c>
       <c r="E4" t="n">
-        <v>276.840154918861</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="F4" t="n">
-        <v>129.9502074209506</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297155</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297155</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297155</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297155</v>
+        <v>51.09175193297138</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771862</v>
+        <v>101.0304570771856</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703272</v>
+        <v>220.4612409703261</v>
       </c>
       <c r="M4" t="n">
-        <v>356.77338024861</v>
+        <v>356.7733802486082</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493203</v>
+        <v>495.278937949318</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455645</v>
+        <v>607.1949427455617</v>
       </c>
       <c r="P4" t="n">
-        <v>679.437736707141</v>
+        <v>679.4377367071377</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.437736707141</v>
+        <v>679.4377367071377</v>
       </c>
       <c r="R4" t="n">
-        <v>679.437736707141</v>
+        <v>679.4377367071377</v>
       </c>
       <c r="S4" t="n">
-        <v>679.437736707141</v>
+        <v>679.4377367071377</v>
       </c>
       <c r="T4" t="n">
-        <v>679.437736707141</v>
+        <v>679.4377367071377</v>
       </c>
       <c r="U4" t="n">
-        <v>679.437736707141</v>
+        <v>679.4377367071377</v>
       </c>
       <c r="V4" t="n">
-        <v>424.7532485012541</v>
+        <v>647.7869755569119</v>
       </c>
       <c r="W4" t="n">
-        <v>424.7532485012541</v>
+        <v>647.7869755569119</v>
       </c>
       <c r="X4" t="n">
-        <v>424.7532485012541</v>
+        <v>419.7974246588946</v>
       </c>
       <c r="Y4" t="n">
-        <v>424.7532485012541</v>
+        <v>199.0048455153645</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1473.661701757002</v>
+        <v>1160.893553869914</v>
       </c>
       <c r="C5" t="n">
-        <v>1104.699184816591</v>
+        <v>791.9310369295019</v>
       </c>
       <c r="D5" t="n">
-        <v>746.4334862098401</v>
+        <v>791.9310369295019</v>
       </c>
       <c r="E5" t="n">
-        <v>746.4334862098401</v>
+        <v>791.9310369295019</v>
       </c>
       <c r="F5" t="n">
         <v>588.0275389314648</v>
@@ -4564,55 +4564,55 @@
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817395</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>322.4498401563318</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>875.2630984025311</v>
       </c>
       <c r="M5" t="n">
-        <v>1215.460820653039</v>
+        <v>1356.544744380207</v>
       </c>
       <c r="N5" t="n">
-        <v>1409.795033545021</v>
+        <v>1550.87895727219</v>
       </c>
       <c r="O5" t="n">
-        <v>1956.956238312099</v>
+        <v>2098.040162039267</v>
       </c>
       <c r="P5" t="n">
-        <v>2386.271284651393</v>
+        <v>2527.355208378562</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2406.124290896985</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164696</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164695</v>
+        <v>1937.632725909847</v>
       </c>
       <c r="V5" t="n">
-        <v>1860.261541821124</v>
+        <v>1937.632725909847</v>
       </c>
       <c r="W5" t="n">
-        <v>1860.261541821124</v>
+        <v>1937.632725909847</v>
       </c>
       <c r="X5" t="n">
-        <v>1860.261541821124</v>
+        <v>1937.632725909847</v>
       </c>
       <c r="Y5" t="n">
-        <v>1860.261541821124</v>
+        <v>1547.493393934035</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.7636139849254</v>
+        <v>893.415955385733</v>
       </c>
       <c r="C6" t="n">
-        <v>744.3105847037984</v>
+        <v>718.962926104606</v>
       </c>
       <c r="D6" t="n">
-        <v>595.3761750425472</v>
+        <v>570.0285164433548</v>
       </c>
       <c r="E6" t="n">
-        <v>436.1387200370916</v>
+        <v>410.7910614378993</v>
       </c>
       <c r="F6" t="n">
-        <v>289.6041620639766</v>
+        <v>264.2565034647843</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>126.8151058240062</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800311</v>
+        <v>97.15164357768666</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>380.675190873813</v>
+        <v>499.3344427307087</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.565353453463</v>
+        <v>1549.489049537427</v>
       </c>
       <c r="N6" t="n">
-        <v>1358.222095106128</v>
+        <v>1748.145791190092</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>1907.658103858852</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2331.625872339689</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2541.227428802344</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2391.760639664978</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825066</v>
       </c>
       <c r="U6" t="n">
-        <v>1991.980214935424</v>
+        <v>1966.632556336232</v>
       </c>
       <c r="V6" t="n">
-        <v>1756.828106703682</v>
+        <v>1731.480448104489</v>
       </c>
       <c r="W6" t="n">
-        <v>1502.59074997548</v>
+        <v>1477.243091376288</v>
       </c>
       <c r="X6" t="n">
-        <v>1294.739249769947</v>
+        <v>1269.391591170755</v>
       </c>
       <c r="Y6" t="n">
-        <v>1086.978951004993</v>
+        <v>1061.631292405801</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.7282193319823</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>237.7282193319823</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>237.7282193319823</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>237.7282193319823</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>237.7282193319823</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4752,25 +4752,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>843.7411832797532</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>674.0611723681089</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>674.0611723681089</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>419.376684162222</v>
+        <v>885.8952291320794</v>
       </c>
       <c r="W7" t="n">
-        <v>419.376684162222</v>
+        <v>885.8952291320794</v>
       </c>
       <c r="X7" t="n">
-        <v>419.376684162222</v>
+        <v>885.8952291320794</v>
       </c>
       <c r="Y7" t="n">
-        <v>419.376684162222</v>
+        <v>665.1026499885493</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.8580066177523</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C8" t="n">
-        <v>394.8580066177523</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D8" t="n">
-        <v>394.8580066177523</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E8" t="n">
-        <v>394.8580066177523</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F8" t="n">
-        <v>387.9125058685489</v>
+        <v>520.9312851968494</v>
       </c>
       <c r="G8" t="n">
-        <v>376.2481596332418</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657686</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>781.4578466818741</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507743</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1492.310105122875</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1269.331624317611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1269.331624317611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1269.331624317611</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1269.331624317611</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.331624317611</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,64 +5175,64 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5263,22 +5263,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075798</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1806.233497455525</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1551.549009249638</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.131839212678</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>1034.14228831466</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>813.3497091711304</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6448,10 +6448,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6502,7 +6502,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6724,13 +6724,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6922,10 +6922,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6943,22 +6943,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7031,7 +7031,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>320.6148781080811</v>
+        <v>320.6148781080794</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>297.5578112649179</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.5090138658258</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>95.99119834235051</v>
+        <v>369.995687460601</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,10 +23472,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7894017452182</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>86.46557462472416</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>897494.5895622377</v>
+        <v>897494.5895622376</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597551</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597551</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.074616197</v>
+        <v>548460.0746161942</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299266</v>
+        <v>225009.9816299293</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230264</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843801</v>
+        <v>167098.1292843795</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243600065</v>
+        <v>498.7619243606502</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198063</v>
+        <v>247452.361919807</v>
       </c>
       <c r="C4" t="n">
-        <v>198312.6346601523</v>
+        <v>198312.6346601522</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719647</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26447,7 +26447,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719718</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.3137194603</v>
+        <v>80023.3137194601</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905219</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239628.3786106442</v>
+        <v>-239628.3786106419</v>
       </c>
       <c r="C6" t="n">
-        <v>127471.8185756889</v>
+        <v>127471.8185756863</v>
       </c>
       <c r="D6" t="n">
-        <v>118570.7261352044</v>
+        <v>118570.7261352047</v>
       </c>
       <c r="E6" t="n">
-        <v>9075.895595225036</v>
+        <v>9388.536924146654</v>
       </c>
       <c r="F6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486921</v>
       </c>
       <c r="G6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486927</v>
       </c>
       <c r="H6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="I6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="J6" t="n">
-        <v>349463.2079353911</v>
+        <v>349775.8492643127</v>
       </c>
       <c r="K6" t="n">
-        <v>516062.575295411</v>
+        <v>516375.2166243319</v>
       </c>
       <c r="L6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486927</v>
       </c>
       <c r="M6" t="n">
-        <v>383954.0434908447</v>
+        <v>384266.6848197658</v>
       </c>
       <c r="N6" t="n">
-        <v>516561.3372197713</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="O6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486925</v>
       </c>
       <c r="P6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486925</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817392</v>
+        <v>347.0634059817371</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621445</v>
+        <v>638.6468991621422</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817392</v>
+        <v>347.0634059817371</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563259</v>
+        <v>246.412694356328</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621445</v>
+        <v>638.6468991621422</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894402</v>
+        <v>1.937932937897017</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621445</v>
+        <v>638.6468991621421</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894402</v>
+        <v>1.937932937896903</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621445</v>
+        <v>638.6468991621422</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894402</v>
+        <v>1.937932937897017</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>270.8056589577689</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>58.13925412425452</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387724</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8819264134526</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>146.8819264134434</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>89.29525638178585</v>
+        <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077897</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601728</v>
+        <v>49.11144063601755</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845176</v>
+        <v>33.75546894845208</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
@@ -27596,16 +27596,16 @@
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>220.8033897851045</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>250.0541579361199</v>
+        <v>205.0115827236547</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045278711</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25.09418201320176</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>55.38969391823093</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>88.50426681751227</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>313.288514365272</v>
       </c>
       <c r="H8" t="n">
-        <v>44.97710590028953</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546889</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>153.5253779792051</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39522977279091</v>
+        <v>1.395229772790902</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059491</v>
+        <v>14.28889691059483</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552162</v>
+        <v>53.7895958155213</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284126</v>
+        <v>118.4183829284119</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106519</v>
+        <v>177.4784592106508</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697018</v>
+        <v>220.1777223697004</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415721</v>
+        <v>244.9901398415706</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335143</v>
+        <v>248.9543364335128</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803247</v>
+        <v>235.0805203803233</v>
       </c>
       <c r="P2" t="n">
-        <v>200.635785364549</v>
+        <v>200.6357853645478</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264745</v>
+        <v>150.6691191264736</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507709</v>
+        <v>87.64310221507657</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7937984474729</v>
+        <v>31.79379844747271</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392213</v>
+        <v>6.107618330392176</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232728</v>
+        <v>0.1116183818232721</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682693</v>
+        <v>0.7465137411682647</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809338</v>
+        <v>7.209751131809295</v>
       </c>
       <c r="I3" t="n">
-        <v>25.7023371411005</v>
+        <v>25.70233714110035</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502496</v>
+        <v>70.52917762502453</v>
       </c>
       <c r="K3" t="n">
-        <v>120.545598283299</v>
+        <v>120.5455982832983</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426981</v>
+        <v>162.0884331426971</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600478</v>
+        <v>189.1495562600467</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821807</v>
+        <v>194.1557821821795</v>
       </c>
       <c r="O3" t="n">
-        <v>177.614609285768</v>
+        <v>177.6146092857669</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323865</v>
+        <v>142.5513827323856</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351452</v>
+        <v>95.29182422351394</v>
       </c>
       <c r="R3" t="n">
-        <v>46.3493356139387</v>
+        <v>46.34933561393842</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389306</v>
+        <v>13.86616532389298</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200172</v>
+        <v>3.008974246200154</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949142</v>
+        <v>0.04911274612949112</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625852043573628</v>
+        <v>0.6258520435736242</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772806</v>
+        <v>5.564393623772772</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946875</v>
+        <v>18.82107781946863</v>
       </c>
       <c r="J4" t="n">
-        <v>44.2477394806555</v>
+        <v>44.24773948065523</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519059</v>
+        <v>72.71262833519015</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730104</v>
+        <v>93.04713018730048</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218242</v>
+        <v>98.10515261218183</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886262</v>
+        <v>95.77243135886204</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711612</v>
+        <v>88.46134157711558</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821404</v>
+        <v>75.69395988821357</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324262</v>
+        <v>52.4065743032423</v>
       </c>
       <c r="R4" t="n">
-        <v>28.1405837046833</v>
+        <v>28.14058370468313</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027859</v>
+        <v>10.90689425027852</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269137</v>
+        <v>2.674095095269121</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0341373841949252</v>
+        <v>0.034137384194925</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738001</v>
+        <v>106.4690935737994</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368361</v>
+        <v>281.534020736835</v>
       </c>
       <c r="L2" t="n">
-        <v>402.072521950165</v>
+        <v>402.0725219501636</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071318</v>
+        <v>464.1574401071304</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489075</v>
+        <v>456.8881972489061</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213833</v>
+        <v>385.7824902213819</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807621</v>
+        <v>291.201497780761</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119297</v>
+        <v>140.6784199119288</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.7825862987671</v>
+        <v>69.78258629876667</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215186</v>
+        <v>247.1693963215179</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662831</v>
+        <v>394.3743986662821</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880294</v>
+        <v>512.7205860880283</v>
       </c>
       <c r="N3" t="n">
-        <v>383.4289482069286</v>
+        <v>383.4289482069256</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180531</v>
+        <v>428.880684118052</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579934</v>
+        <v>327.0397439579925</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733421</v>
+        <v>165.3873378733415</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930773</v>
+        <v>50.44313650930729</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476172</v>
+        <v>120.6371554476166</v>
       </c>
       <c r="M4" t="n">
-        <v>137.689029574023</v>
+        <v>137.6890295740224</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380912</v>
+        <v>139.9046037380906</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911558</v>
+        <v>113.0464694911552</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310753</v>
+        <v>72.97251915310706</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>486.1430767451276</v>
       </c>
       <c r="N5" t="n">
         <v>196.2971847393761</v>
@@ -34956,7 +34956,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>177.846508837134</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35023,13 +35023,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>277.3016391045776</v>
+        <v>551.3061282228281</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522353</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
